--- a/data/trans_camb/BARTHEL_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R3-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.192355762687666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.817610685315649</v>
+        <v>6.817610685315646</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.181916811975251</v>
@@ -655,7 +655,7 @@
         <v>7.618005159430459</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.191807012532289</v>
+        <v>8.191807012532285</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.127518476741686</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3073191984189352</v>
+        <v>-0.7310504304894186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.694641755168657</v>
+        <v>-1.597477996598046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.742833148158095</v>
+        <v>2.822383798357455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7910217597347234</v>
+        <v>1.148830465107443</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.674862100807122</v>
+        <v>1.999598329403673</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.033845411929431</v>
+        <v>4.009374428992153</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.679981572327278</v>
+        <v>1.57216332787893</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.703730834883038</v>
+        <v>1.72676381467929</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.628583631645304</v>
+        <v>4.43889935158433</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.949327959936372</v>
+        <v>8.514099152395547</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.022051245807334</v>
+        <v>6.325106991487471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.82102999178656</v>
+        <v>10.49708925567568</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.95241517660665</v>
+        <v>11.47051333619535</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.57789481629459</v>
+        <v>12.72549201585379</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.31718616902718</v>
+        <v>12.12543785720585</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.401937184002515</v>
+        <v>8.521075921849562</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.142477914010568</v>
+        <v>8.71050594489178</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.896478658500465</v>
+        <v>10.54711181175319</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3711390722690835</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1.15413827805844</v>
+        <v>1.154138278058439</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5966475031441461</v>
@@ -760,7 +760,7 @@
         <v>0.7352515240108997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7906319914881546</v>
+        <v>0.7906319914881543</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.6169901832845788</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07518422493878188</v>
+        <v>-0.1348263655201351</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.231519892533269</v>
+        <v>-0.2291492212530059</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2711685879759618</v>
+        <v>0.2991863848731978</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05586923200697168</v>
+        <v>0.08761977348346035</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2006577829838033</v>
+        <v>0.1555915653343365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3120117524993041</v>
+        <v>0.309542574011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1589983021731765</v>
+        <v>0.1515310894278534</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1803216417382036</v>
+        <v>0.1717519421200213</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4613609956873934</v>
+        <v>0.4410341156093207</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.947217329496767</v>
+        <v>2.002074641439304</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.459515966531242</v>
+        <v>1.537501157488105</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.852977761107002</v>
+        <v>2.752759831091747</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.344844603862108</v>
+        <v>1.423718433341148</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.494898693874916</v>
+        <v>1.581492483773148</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.60100990781258</v>
+        <v>1.552986337737758</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.250925138380317</v>
+        <v>1.26887476393513</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.201107790844692</v>
+        <v>1.255637288446408</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.451776997192962</v>
+        <v>1.663518851015779</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>9.438421568828209</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>18.08339693188007</v>
+        <v>18.08339693188006</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.905646051560067</v>
+        <v>-2.60596719236231</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.889968086666728</v>
+        <v>-2.909069717371669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.523133103637703</v>
+        <v>1.796585398974345</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.891322463571805</v>
+        <v>6.958466076447454</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.948344398445418</v>
+        <v>4.961804157606453</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.76128023519207</v>
+        <v>18.09080577656078</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.197126736507637</v>
+        <v>5.56452042068835</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.787291376641939</v>
+        <v>3.921641640393523</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>13.41996458375249</v>
+        <v>12.78953004563665</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.03029070911741</v>
+        <v>14.78711617019152</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.99748996157662</v>
+        <v>11.9778028163661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.44770487299719</v>
+        <v>14.96088896798949</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.71969126884843</v>
+        <v>22.04762622659717</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>20.20675638955742</v>
+        <v>19.29625297963621</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.31332424914446</v>
+        <v>30.67222801280963</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.46169124254327</v>
+        <v>17.29377910955663</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.41055028380048</v>
+        <v>15.80856239975866</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>22.64267485300831</v>
+        <v>22.39113712649686</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.3374387138471521</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6465104528530529</v>
+        <v>0.6465104528530526</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07278084595451312</v>
+        <v>-0.09422997483182217</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1086519053043647</v>
+        <v>-0.1045245704543739</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05277759286936637</v>
+        <v>0.07589481992707703</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1903707885424044</v>
+        <v>0.2024711857147057</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1388824253080009</v>
+        <v>0.135209689543127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4891230121632856</v>
+        <v>0.5146705644997832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1706016547656392</v>
+        <v>0.1749456079589615</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1208363089293397</v>
+        <v>0.1216286385066425</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.424413781832824</v>
+        <v>0.4020520230041618</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7406380217824322</v>
+        <v>0.7388826941972334</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6660189268216972</v>
+        <v>0.6076718916585943</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8093660638652109</v>
+        <v>0.813443028706514</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8111812355393855</v>
+        <v>0.8387556656025671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7493635200215849</v>
+        <v>0.7049489279748364</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.135728808899246</v>
+        <v>1.187235232931471</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6600530928416423</v>
+        <v>0.67807715659349</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6132722230755248</v>
+        <v>0.6378509027406551</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9263543263054291</v>
+        <v>0.9219601723374559</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.68036387952694</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.841305797771081</v>
+        <v>7.841305797771084</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>11.17296192319533</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7830134942242127</v>
+        <v>0.9987173779759291</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.27056138731972</v>
+        <v>-0.03215705722644215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.990592052468658</v>
+        <v>4.562681753998998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.945165780690931</v>
+        <v>6.156619409925795</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.042037834024744</v>
+        <v>5.948478486901065</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.87245882916342</v>
+        <v>12.70989525341957</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.333482331516797</v>
+        <v>5.413180207555103</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.302068449889554</v>
+        <v>4.214100924989685</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>10.14248731729068</v>
+        <v>9.892988631517206</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.905708556410572</v>
+        <v>10.15321796277393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.62076926627187</v>
+        <v>8.222722084513158</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.62397506676048</v>
+        <v>11.79821036432097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.57236165504167</v>
+        <v>15.8573687944285</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.97125520744261</v>
+        <v>15.39763873040497</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.79632871934162</v>
+        <v>20.87099147776537</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.15606228649942</v>
+        <v>12.12477828987951</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.74453575864767</v>
+        <v>10.85886610591968</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.52668465307094</v>
+        <v>15.74330392855013</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2759503010558179</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5879339017542439</v>
+        <v>0.5879339017542441</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5483793470989101</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05492493365374707</v>
+        <v>0.06606523762516914</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01663588808842163</v>
+        <v>-0.005044832920556646</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2388692481123941</v>
+        <v>0.2943213623860949</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2583681286383998</v>
+        <v>0.2639587910503011</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2584462259488223</v>
+        <v>0.2559769805698113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5484937078194266</v>
+        <v>0.5359799544452397</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2718726911341691</v>
+        <v>0.2730637479085937</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2325510986382802</v>
+        <v>0.2254978815584185</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5251486391831813</v>
+        <v>0.5077149405357707</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9111013992348731</v>
+        <v>0.9043633181933244</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6882560008946483</v>
+        <v>0.7227432746973735</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.054181202496527</v>
+        <v>1.099511540831124</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8485309928939203</v>
+        <v>0.8985549249959981</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8197262556049026</v>
+        <v>0.8576946714902771</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.158687452468895</v>
+        <v>1.190755292332053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7464470352616054</v>
+        <v>0.763937044866169</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6857630693047087</v>
+        <v>0.6869637581996216</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.018628621450202</v>
+        <v>1.023186278713111</v>
       </c>
     </row>
     <row r="22">
